--- a/MSIS2433-OOP/Điểm thực hành/MSIS2433.N11.CTTT.1.xlsx
+++ b/MSIS2433-OOP/Điểm thực hành/MSIS2433.N11.CTTT.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\MSIS2433-OOP\Điểm thực hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A89C2-756C-4293-8B4C-9AE53D0BF530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4C1835-13CD-491B-8BD9-01511411CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Lab 5</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -511,20 +514,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,16 +537,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,11 +871,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -882,11 +885,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -904,23 +907,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -930,11 +933,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -944,11 +947,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1000,14 +1003,14 @@
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
@@ -1016,14 +1019,14 @@
       <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
@@ -1032,14 +1035,14 @@
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -1048,14 +1051,14 @@
       <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
@@ -1064,14 +1067,16 @@
       <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="D14" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
@@ -1080,14 +1085,16 @@
       <c r="B15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="D15" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -1096,14 +1103,16 @@
       <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="D16" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
@@ -1112,14 +1121,14 @@
       <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
@@ -1128,14 +1137,16 @@
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
@@ -1144,14 +1155,16 @@
       <c r="B19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="D19" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
@@ -1160,14 +1173,14 @@
       <c r="B20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -1176,14 +1189,16 @@
       <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="D21" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
@@ -1192,14 +1207,14 @@
       <c r="B22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
@@ -1208,14 +1223,14 @@
       <c r="B23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
@@ -1224,14 +1239,16 @@
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="D24" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -1240,14 +1257,16 @@
       <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="D25" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
@@ -1256,14 +1275,14 @@
       <c r="B26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
@@ -1272,14 +1291,16 @@
       <c r="B27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="D27" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
@@ -1288,14 +1309,16 @@
       <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="D28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -1304,14 +1327,16 @@
       <c r="B29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="D29" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
@@ -1320,14 +1345,16 @@
       <c r="B30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="D30" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
@@ -1336,14 +1363,16 @@
       <c r="B31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="D31" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
@@ -1352,14 +1381,16 @@
       <c r="B32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="D32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -1368,14 +1399,16 @@
       <c r="B33" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="D33" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
@@ -1384,14 +1417,14 @@
       <c r="B34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
@@ -1400,14 +1433,16 @@
       <c r="B35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="D35" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
@@ -1416,14 +1451,16 @@
       <c r="B36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="D36" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
@@ -1432,14 +1469,16 @@
       <c r="B37" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="D37" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
@@ -1448,14 +1487,16 @@
       <c r="B38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="D38" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
@@ -1464,54 +1505,56 @@
       <c r="B39" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="D39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
@@ -1526,6 +1569,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:E42"/>
@@ -1533,12 +1582,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
